--- a/medicine/Sexualité et sexologie/Aquaphilie_(fétiche)/Aquaphilie_(fétiche).xlsx
+++ b/medicine/Sexualité et sexologie/Aquaphilie_(fétiche)/Aquaphilie_(fétiche).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aquaphilie_(f%C3%A9tiche)</t>
+          <t>Aquaphilie_(fétiche)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aquaphilie (ou hydrophilie) est un terme employé pour désigner une forme de fétichisme sexuel incluant des images de personnes en train de nager ou flotter sur l'eau, et activités sexuelles dans ou sous l'eau[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aquaphilie (ou hydrophilie) est un terme employé pour désigner une forme de fétichisme sexuel incluant des images de personnes en train de nager ou flotter sur l'eau, et activités sexuelles dans ou sous l'eau,.
 Littéralement, « amoureux de l'eau » vient du latin aqua (« eau ») et de grec φιλειν (philein).
 </t>
         </is>
